--- a/doors_detection_long_term/scripts/results/faster_rcnn_complete_metric_simulation.xlsx
+++ b/doors_detection_long_term/scripts/results/faster_rcnn_complete_metric_simulation.xlsx
@@ -596,14 +596,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>0</t>
@@ -611,7 +611,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>66</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>72</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>76</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>72</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1311,17 +1311,17 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>91</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>99</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1441,17 +1441,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1746,12 +1746,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>53</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1866,12 +1866,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1916,12 +1916,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>116</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2106,12 +2106,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -2151,17 +2151,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>113</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2271,17 +2271,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>89</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -2391,17 +2391,17 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>86</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -2461,17 +2461,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -2511,27 +2511,27 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>210</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>47</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2631,27 +2631,27 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>193</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2706,12 +2706,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>128</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -2871,17 +2871,17 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>118</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -2991,17 +2991,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>55</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>86</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3491,7 +3491,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -3951,7 +3951,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>85</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3971,7 +3971,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4011,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>86</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4081,17 +4081,17 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4191,7 +4191,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>86</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4201,17 +4201,17 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>86</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -4321,17 +4321,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>92</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -4511,7 +4511,7 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4686,12 +4686,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4791,7 +4791,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>85</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4911,19 +4911,19 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>116</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>0</t>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>59</t>
         </is>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>116</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5051,7 +5051,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -5151,17 +5151,17 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>119</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>72</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -5271,7 +5271,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>117</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>109</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5411,7 +5411,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -5521,7 +5521,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5531,7 +5531,7 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5581,7 +5581,7 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -5631,17 +5631,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>111</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5751,17 +5751,17 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>118</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>133</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5991,7 +5991,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>133</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -6001,7 +6001,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6011,7 +6011,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>133</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6231,17 +6231,17 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6251,7 +6251,7 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6311,7 +6311,7 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6351,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>136</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6411,7 +6411,7 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6471,7 +6471,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>134</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K102" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>133</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -6611,7 +6611,7 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -6831,17 +6831,17 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>88</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>86</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6961,7 +6961,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6971,7 +6971,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -7071,17 +7071,17 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>95</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -7091,7 +7091,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -7191,19 +7191,19 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>0</t>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>99</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -7321,17 +7321,17 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>105</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -7441,17 +7441,17 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -7551,17 +7551,17 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -7571,7 +7571,7 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>91</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -7681,7 +7681,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -7691,7 +7691,7 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -7791,7 +7791,7 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>112</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -7811,7 +7811,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -7911,7 +7911,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>111</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -7971,7 +7971,7 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>97</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -8151,7 +8151,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>108</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -8161,7 +8161,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -8171,7 +8171,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -8271,19 +8271,19 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>118</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>0</t>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>116</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K133" t="inlineStr">
@@ -8411,7 +8411,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>118</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -8631,7 +8631,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>116</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -8641,7 +8641,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -8651,7 +8651,7 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -8701,17 +8701,17 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -8751,7 +8751,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>125</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -8771,7 +8771,7 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -8811,7 +8811,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>112</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -8831,7 +8831,7 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -8871,27 +8871,27 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>158</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -8931,7 +8931,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>118</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -8941,17 +8941,17 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -8991,7 +8991,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>104</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -9011,7 +9011,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -9051,27 +9051,27 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -9111,27 +9111,27 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>151</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>120</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -9181,17 +9181,17 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -9291,7 +9291,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>126</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -9301,17 +9301,17 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -9361,7 +9361,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -9421,12 +9421,12 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -9471,27 +9471,27 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>146</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>43</t>
         </is>
       </c>
     </row>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>124</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -9541,7 +9541,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -9591,7 +9591,7 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -9651,27 +9651,27 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>136</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -9711,17 +9711,17 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>146</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -9786,12 +9786,12 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -9831,17 +9831,17 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>158</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -9851,7 +9851,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -9891,27 +9891,27 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -9951,17 +9951,17 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>154</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -9971,7 +9971,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>136</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -10026,12 +10026,12 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -10071,27 +10071,27 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>165</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>134</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -10146,12 +10146,12 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>159</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10251,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>137</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -10271,7 +10271,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>146</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -10321,7 +10321,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -10371,7 +10371,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>133</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -10386,12 +10386,12 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>166</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -10441,17 +10441,17 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -10491,7 +10491,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>141</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -10501,17 +10501,17 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>154</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -10561,7 +10561,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -10621,7 +10621,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -10631,7 +10631,7 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -10681,7 +10681,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -10691,7 +10691,7 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -10741,7 +10741,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -10751,7 +10751,7 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -10791,7 +10791,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>69</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -10801,7 +10801,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -10856,12 +10856,12 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -10871,7 +10871,7 @@
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>58</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -10931,7 +10931,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11031,7 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -11041,7 +11041,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -11051,7 +11051,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -11101,7 +11101,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -11151,7 +11151,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>72</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -11161,7 +11161,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -11221,7 +11221,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -11281,7 +11281,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -11351,7 +11351,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>67</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K183" t="inlineStr">
@@ -11411,7 +11411,7 @@
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>70</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -11531,7 +11531,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -11581,7 +11581,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -11641,7 +11641,7 @@
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K187" t="inlineStr">
@@ -11651,7 +11651,7 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -11701,7 +11701,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -11761,7 +11761,7 @@
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K189" t="inlineStr">
@@ -11771,7 +11771,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -11871,7 +11871,7 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -11881,7 +11881,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -11891,7 +11891,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -11951,7 +11951,7 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -11991,7 +11991,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -12001,7 +12001,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K193" t="inlineStr">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -12051,7 +12051,7 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -12111,7 +12111,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -12121,7 +12121,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K195" t="inlineStr">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -12171,7 +12171,7 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>76</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -12241,7 +12241,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -12301,7 +12301,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -12351,7 +12351,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -12361,7 +12361,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -12371,7 +12371,7 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -12471,7 +12471,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -12481,7 +12481,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -12491,7 +12491,7 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -12551,7 +12551,7 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -12601,7 +12601,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -12611,7 +12611,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -12711,17 +12711,17 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -12731,7 +12731,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -12771,7 +12771,7 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -12841,12 +12841,12 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -12951,27 +12951,27 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>52</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -13016,17 +13016,17 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
@@ -13071,19 +13071,19 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>49</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>0</t>
@@ -13091,7 +13091,7 @@
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -13131,7 +13131,7 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -13146,12 +13146,12 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -13191,27 +13191,27 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L213" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -13311,7 +13311,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -13321,12 +13321,12 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -13371,27 +13371,27 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -13431,7 +13431,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -13446,12 +13446,12 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -13491,7 +13491,7 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>92</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -13501,7 +13501,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -13511,7 +13511,7 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>53</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -13566,12 +13566,12 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -13621,7 +13621,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -13671,19 +13671,19 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>0</t>
@@ -13691,7 +13691,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -13731,7 +13731,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>94</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -13741,7 +13741,7 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
@@ -13791,27 +13791,27 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>54</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -13851,7 +13851,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -13861,7 +13861,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -13911,7 +13911,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>57</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -13921,7 +13921,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
@@ -13931,7 +13931,7 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -13971,17 +13971,17 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>99</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -14031,27 +14031,27 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>63</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -14091,7 +14091,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>98</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -14101,7 +14101,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>62</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -14161,17 +14161,17 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -14211,17 +14211,17 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -14271,27 +14271,27 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L231" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -14331,7 +14331,7 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -14341,7 +14341,7 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
@@ -14391,7 +14391,7 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -14401,17 +14401,17 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -14511,27 +14511,27 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>160</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>167</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -14641,17 +14641,17 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -14711,7 +14711,7 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -14751,27 +14751,27 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>180</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>91</t>
         </is>
       </c>
     </row>
@@ -14831,7 +14831,7 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -14871,17 +14871,17 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>180</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -14891,7 +14891,7 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -14941,7 +14941,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -14951,7 +14951,7 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -14991,17 +14991,17 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>168</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -15111,17 +15111,17 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>183</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -15191,7 +15191,7 @@
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -15231,7 +15231,7 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>176</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -15241,7 +15241,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -15251,7 +15251,7 @@
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -15296,7 +15296,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -15351,17 +15351,17 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>186</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>52</t>
         </is>
       </c>
     </row>
@@ -15411,7 +15411,7 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>39</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -15421,7 +15421,7 @@
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -15431,7 +15431,7 @@
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -15471,7 +15471,7 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>179</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -15481,7 +15481,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -15531,7 +15531,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>43</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -15551,7 +15551,7 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -15591,7 +15591,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>191</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -15601,7 +15601,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -15611,7 +15611,7 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>41</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -15671,7 +15671,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -15711,7 +15711,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>203</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -15721,17 +15721,17 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>68</t>
         </is>
       </c>
     </row>
@@ -15771,7 +15771,7 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -15781,7 +15781,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -15791,7 +15791,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -15831,17 +15831,17 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>189</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -15851,7 +15851,7 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -15891,7 +15891,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -15911,7 +15911,7 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -15951,7 +15951,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>194</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -15961,7 +15961,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>49</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -16021,7 +16021,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K260" t="inlineStr">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -16071,7 +16071,7 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>205</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -16081,7 +16081,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K261" t="inlineStr">
@@ -16091,7 +16091,7 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -16131,7 +16131,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -16151,7 +16151,7 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -16191,7 +16191,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>193</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -16211,7 +16211,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>53</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -16271,7 +16271,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -16311,7 +16311,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>210</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -16321,7 +16321,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -16331,7 +16331,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -16391,7 +16391,7 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -16431,27 +16431,27 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -16511,7 +16511,7 @@
       </c>
       <c r="L268" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -16551,7 +16551,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>69</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -16561,17 +16561,17 @@
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -16671,7 +16671,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>59</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -16681,7 +16681,7 @@
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
@@ -16691,7 +16691,7 @@
       </c>
       <c r="L271" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -16791,17 +16791,17 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -16811,7 +16811,7 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -16851,7 +16851,7 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -16911,17 +16911,17 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>68</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -16931,7 +16931,7 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -17031,7 +17031,7 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -17041,17 +17041,17 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -17091,7 +17091,7 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -17111,7 +17111,7 @@
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -17151,7 +17151,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -17161,7 +17161,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -17231,7 +17231,7 @@
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -17271,7 +17271,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -17281,7 +17281,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -17291,7 +17291,7 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -17331,7 +17331,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -17341,7 +17341,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K282" t="inlineStr">
@@ -17351,7 +17351,7 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -17391,7 +17391,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -17401,7 +17401,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -17411,7 +17411,7 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -17451,7 +17451,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -17471,7 +17471,7 @@
       </c>
       <c r="L284" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -17511,7 +17511,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -17521,7 +17521,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K285" t="inlineStr">
@@ -17531,7 +17531,7 @@
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -17571,7 +17571,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -17591,7 +17591,7 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -17631,7 +17631,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -17641,7 +17641,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
@@ -17651,7 +17651,7 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -17711,7 +17711,7 @@
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -17751,7 +17751,7 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>79</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -17761,7 +17761,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -17771,7 +17771,7 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -17811,7 +17811,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -17821,7 +17821,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -17831,7 +17831,7 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -17871,17 +17871,17 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>88</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -17891,7 +17891,7 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -17931,7 +17931,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -17941,7 +17941,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -17951,7 +17951,7 @@
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -18011,7 +18011,7 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -18051,7 +18051,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -18111,7 +18111,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -18121,7 +18121,7 @@
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K295" t="inlineStr">
@@ -18131,7 +18131,7 @@
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -18171,7 +18171,7 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>52</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -18231,7 +18231,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>98</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -18241,7 +18241,7 @@
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -18251,7 +18251,7 @@
       </c>
       <c r="L297" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -18291,7 +18291,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>57</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -18306,12 +18306,12 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -18351,27 +18351,27 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>208</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>67</t>
         </is>
       </c>
     </row>
@@ -18411,27 +18411,27 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>66</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -18471,27 +18471,27 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>226</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -18531,17 +18531,17 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>55</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -18591,27 +18591,27 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>216</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -18651,7 +18651,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -18666,12 +18666,12 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -18711,7 +18711,7 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>218</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -18721,17 +18721,17 @@
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -18771,12 +18771,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -18791,7 +18791,7 @@
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -18831,7 +18831,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>214</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -18841,7 +18841,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>69</t>
         </is>
       </c>
     </row>
@@ -18891,17 +18891,17 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K308" t="inlineStr">
@@ -18911,7 +18911,7 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -18951,27 +18951,27 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>217</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -19011,7 +19011,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -19031,7 +19031,7 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -19071,7 +19071,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>215</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -19081,17 +19081,17 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -19131,12 +19131,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>81</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -19146,12 +19146,12 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -19191,7 +19191,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>219</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -19201,7 +19201,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -19211,7 +19211,7 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -19251,7 +19251,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>81</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -19261,7 +19261,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -19271,7 +19271,7 @@
       </c>
       <c r="L314" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -19311,27 +19311,27 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>245</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -19371,7 +19371,7 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
@@ -19381,7 +19381,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -19391,7 +19391,7 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -19431,27 +19431,27 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>247</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -19491,7 +19491,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -19501,7 +19501,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -19511,7 +19511,7 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -19551,27 +19551,27 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>244</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>53</t>
         </is>
       </c>
     </row>
@@ -19611,7 +19611,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>84</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -19621,17 +19621,17 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -19671,27 +19671,27 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>249</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>56</t>
         </is>
       </c>
     </row>
@@ -19731,17 +19731,17 @@
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>84</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -19751,7 +19751,7 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -19791,27 +19791,27 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>236</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -19851,12 +19851,12 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>84</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -19871,7 +19871,7 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -19911,7 +19911,7 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>246</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -19921,17 +19921,17 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -19971,7 +19971,7 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -19981,7 +19981,7 @@
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K326" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="L326" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -20031,27 +20031,27 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>234</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -20091,12 +20091,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>87</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J328" t="inlineStr">
@@ -20106,12 +20106,12 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -20151,7 +20151,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>242</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -20166,12 +20166,12 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -20211,7 +20211,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -20221,17 +20221,17 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -20271,17 +20271,17 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>164</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -20291,7 +20291,7 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -20331,7 +20331,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>61</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -20341,7 +20341,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -20351,7 +20351,7 @@
       </c>
       <c r="L332" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -20391,7 +20391,7 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>172</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -20401,7 +20401,7 @@
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K333" t="inlineStr">
@@ -20411,7 +20411,7 @@
       </c>
       <c r="L333" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>62</t>
         </is>
       </c>
     </row>
@@ -20451,7 +20451,7 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -20461,17 +20461,17 @@
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -20511,7 +20511,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>178</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -20521,17 +20521,17 @@
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>117</t>
         </is>
       </c>
     </row>
@@ -20571,7 +20571,7 @@
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>64</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -20581,7 +20581,7 @@
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
@@ -20591,7 +20591,7 @@
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -20631,7 +20631,7 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>178</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -20641,7 +20641,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -20651,7 +20651,7 @@
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
@@ -20711,7 +20711,7 @@
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -20751,17 +20751,17 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>183</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K339" t="inlineStr">
@@ -20771,7 +20771,7 @@
       </c>
       <c r="L339" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -20811,7 +20811,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -20821,17 +20821,17 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -20871,17 +20871,17 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>185</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K341" t="inlineStr">
@@ -20891,7 +20891,7 @@
       </c>
       <c r="L341" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -20931,27 +20931,27 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K342" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L342" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -20991,7 +20991,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>179</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -21001,7 +21001,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -21011,7 +21011,7 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -21051,7 +21051,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>57</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -21071,7 +21071,7 @@
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -21111,27 +21111,27 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>181</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>47</t>
         </is>
       </c>
     </row>
@@ -21181,17 +21181,17 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L346" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -21231,17 +21231,17 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>202</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -21251,7 +21251,7 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -21291,7 +21291,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>61</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -21301,7 +21301,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -21351,7 +21351,7 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>203</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -21361,17 +21361,17 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>44</t>
         </is>
       </c>
     </row>
@@ -21411,7 +21411,7 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>61</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -21431,7 +21431,7 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -21471,17 +21471,17 @@
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>198</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -21491,7 +21491,7 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -21531,7 +21531,7 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -21551,7 +21551,7 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -21591,7 +21591,7 @@
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>195</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -21601,7 +21601,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -21611,7 +21611,7 @@
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -21651,7 +21651,7 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>66</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -21661,7 +21661,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -21671,7 +21671,7 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -21711,17 +21711,17 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>210</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -21771,7 +21771,7 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>69</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -21791,7 +21791,7 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -21831,7 +21831,7 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>207</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -21841,7 +21841,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -21851,7 +21851,7 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -21901,12 +21901,12 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L358" t="inlineStr">
@@ -21951,17 +21951,17 @@
       </c>
       <c r="H359" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>208</t>
         </is>
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -21971,7 +21971,7 @@
       </c>
       <c r="L359" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -22011,7 +22011,7 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>69</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -22021,12 +22021,12 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -22071,7 +22071,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>204</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -22081,7 +22081,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -22091,7 +22091,7 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>29</t>
         </is>
       </c>
     </row>
